--- a/JFAGY_20240502.xlsx
+++ b/JFAGY_20240502.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzoe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817FFA89-EFFD-B64B-983A-5D5981D4022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A978789-EB30-804F-A92D-D2BA5E9A96A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="1140" windowWidth="37840" windowHeight="23460" xr2:uid="{B3818ECC-767A-FF4D-AA65-40B1537CD553}"/>
+    <workbookView xWindow="10240" yWindow="1100" windowWidth="37840" windowHeight="23460" activeTab="1" xr2:uid="{B3818ECC-767A-FF4D-AA65-40B1537CD553}"/>
   </bookViews>
   <sheets>
-    <sheet name="20240502" sheetId="1" r:id="rId1"/>
+    <sheet name="コード表_20240502" sheetId="1" r:id="rId1"/>
+    <sheet name="コードシステム_20240502" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'20240502'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コード表_20240502!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="9901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10536" uniqueCount="9968">
   <si>
     <t>SEQ</t>
   </si>
@@ -29742,13 +29743,214 @@
   </si>
   <si>
     <t>└ Additives (N.O.S)</t>
+  </si>
+  <si>
+    <t>番号の意味</t>
+  </si>
+  <si>
+    <t>値の定義</t>
+  </si>
+  <si>
+    <t>JFAGY（食品）</t>
+  </si>
+  <si>
+    <t>JFAGY（非食品）</t>
+  </si>
+  <si>
+    <t>YJ12桁</t>
+  </si>
+  <si>
+    <t>YJ9桁（厚労省一般名処方マスタ）</t>
+  </si>
+  <si>
+    <t>WHO-ATC分類</t>
+  </si>
+  <si>
+    <t>メタコード領域</t>
+  </si>
+  <si>
+    <t>コアコード識別記号</t>
+  </si>
+  <si>
+    <t>J：JFAGY、Y：YJコード、G：一般名処方、A：ATC分類</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>コアコードのコード長</t>
+  </si>
+  <si>
+    <t>0〜9、A〜Z（36進数）</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>コアコードが対象とするアレルゲン領域</t>
+  </si>
+  <si>
+    <t>F：食品・飲料、M：医薬品、N：非食品・非医薬品</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>コアコード領域</t>
+  </si>
+  <si>
+    <t>第1コード（1桁）</t>
+  </si>
+  <si>
+    <t>薬効分類コード（日本商品分類コード4桁）</t>
+  </si>
+  <si>
+    <t>レベル1：解剖学的部位メイングループ</t>
+  </si>
+  <si>
+    <t>第2コードと第3コードがセット（２桁）</t>
+  </si>
+  <si>
+    <t>レベル2：治療法サブグループ</t>
+  </si>
+  <si>
+    <t>第4コードと第5コードがセット（２桁）</t>
+  </si>
+  <si>
+    <t>レベル3：薬理学サブグループ</t>
+  </si>
+  <si>
+    <t>投与経路・成分分類番号</t>
+  </si>
+  <si>
+    <t>レベル4：化学サブグループ</t>
+  </si>
+  <si>
+    <t>第6コードと第7コードがセット（２桁）</t>
+  </si>
+  <si>
+    <t>レベル5：化学物質</t>
+  </si>
+  <si>
+    <t>枝番1</t>
+  </si>
+  <si>
+    <t>剤形</t>
+  </si>
+  <si>
+    <t>枝番2</t>
+  </si>
+  <si>
+    <t>規格単位別番号</t>
+  </si>
+  <si>
+    <t>同一規格内順序番号</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>YJチェックディジット</t>
+  </si>
+  <si>
+    <t>20240502版修正点</t>
+  </si>
+  <si>
+    <t>特殊コード</t>
+  </si>
+  <si>
+    <t>・全アレルゲン：000　（新規作成）</t>
+  </si>
+  <si>
+    <t>・医薬品：00M　（新規作成）</t>
+  </si>
+  <si>
+    <t>・食品：00F　（コード変更）</t>
+  </si>
+  <si>
+    <t>・非食品：00N　（コード変更）</t>
+  </si>
+  <si>
+    <t>メタコード変更</t>
+  </si>
+  <si>
+    <t>・ＹＪコードのメタコード：ＹＣＭ</t>
+  </si>
+  <si>
+    <t>・一般名処方コードのメタコード：Ｇ9Ｍ　※コード変更　Ｇeneralの「Ｇ」</t>
+  </si>
+  <si>
+    <t>造影剤のコード</t>
+  </si>
+  <si>
+    <t>・造影剤：A7MV080000　　（ATCコードの「V08：造影剤」を使用）</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -29793,6 +29995,26 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -29802,10 +30024,82 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -29816,7 +30110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -29832,6 +30126,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -30168,9 +30492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6240F00-952D-DB41-9A38-C439C7751DFB}">
   <dimension ref="A1:J1741"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -80140,4 +80464,522 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD12C105-4E87-1948-95F9-CFA47EBAF28C}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" customHeight="1"/>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>9901</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9902</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9903</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9904</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9905</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>9906</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>9953</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9908</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>9909</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9910</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>9911</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>9911</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>9912</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>9913</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>9914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>9954</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="12" t="s">
+        <v>9915</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>9916</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>9955</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>9955</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>9917</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>9955</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>9956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>9957</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12" t="s">
+        <v>9918</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>9919</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>9920</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>9921</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>9922</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9922</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>9922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>9958</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>9923</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19" t="s">
+        <v>9924</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>9924</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>9925</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>9925</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>9926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>9959</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="20" t="s">
+        <v>9927</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>9927</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="20" t="s">
+        <v>9928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>9960</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>9956</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="20" t="s">
+        <v>9929</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>9929</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="21" t="s">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>9961</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="20" t="s">
+        <v>9931</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>9931</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>9932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>9955</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20" t="s">
+        <v>9933</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>9933</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="20" t="s">
+        <v>9934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>9962</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>9963</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19" t="s">
+        <v>9935</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>9935</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>9936</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>9936</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>9964</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19" t="s">
+        <v>9937</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>9937</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>9938</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>9938</v>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>9965</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
+        <v>9939</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>9940</v>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>9966</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="19" t="s">
+        <v>9940</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>9967</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="19" t="s">
+        <v>9941</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>9940</v>
+      </c>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
+        <v>9942</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23" t="s">
+        <v>9943</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24" t="s">
+        <v>9944</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="24" t="s">
+        <v>9945</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="24" t="s">
+        <v>9946</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="24" t="s">
+        <v>9947</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
+        <v>9948</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="24" t="s">
+        <v>9949</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="24" t="s">
+        <v>9950</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
+        <v>9951</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" ht="27" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="24" t="s">
+        <v>9952</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" ht="27" customHeight="1"/>
+    <row r="30" spans="1:9" ht="27" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C17"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>